--- a/test/reference_file.xlsx
+++ b/test/reference_file.xlsx
@@ -28,6 +28,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5.pdf" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7.pdf" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orig_636728778506268479_cpeannualnonprofitindustryupdateseminar.pdf" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1.pdf" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -263,6 +264,18 @@
     <t>9/8/2018</t>
   </si>
   <si>
+    <t>Francis Occena</t>
+  </si>
+  <si>
+    <t>Government Institute Webcast: Not-for-Profit FASB Update</t>
+  </si>
+  <si>
+    <t>fos</t>
+  </si>
+  <si>
+    <t>[{'name': 'Accounting'}]</t>
+  </si>
+  <si>
     <t>Jeannine McDonough</t>
   </si>
   <si>
@@ -311,9 +324,6 @@
     <t>103021</t>
   </si>
   <si>
-    <t>Francis Occena</t>
-  </si>
-  <si>
     <t>Annual Nonprofit Industry Update Seminar</t>
   </si>
   <si>
@@ -321,6 +331,21 @@
   </si>
   <si>
     <t>108137</t>
+  </si>
+  <si>
+    <t>Lee, Richard</t>
+  </si>
+  <si>
+    <t>2017 Controller's Conference</t>
+  </si>
+  <si>
+    <t>Specialized Knowledge &amp; Applications</t>
+  </si>
+  <si>
+    <t>October 18, 2017</t>
+  </si>
+  <si>
+    <t>[{'name': 'Specialized Knowledge &amp; Applications'}, {'name': 'Specialized Knowledge'}, {'name': 'Professional Development'}]</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:B13"/>
+  <dimension ref="A5:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1114,11 +1139,17 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -1159,6 +1190,14 @@
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1193,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1201,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1214,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1222,7 +1261,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1264,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1272,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1280,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1296,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1304,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1322,7 +1361,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1566,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1582,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1595,7 +1634,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1603,7 +1642,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1635,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1643,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1658,41 +1697,126 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" t="s"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/test/reference_file.xlsx
+++ b/test/reference_file.xlsx
@@ -29,6 +29,84 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7.pdf" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orig_636728778506268479_cpeannualnonprofitindustryupdateseminar.pdf" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1.pdf" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8.pdf" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9.pdf" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orig_636711276361138872_certificatedeloitteq42017update1.5.pdf" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="acfe_2.pdf" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="acfe_3.pdf" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="acfe_4.pdf" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="acfe_5.pdf" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="acfe_6.pdf" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="acfe_7.pdf" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="acfe_8.pdf" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="acfe_9.pdf" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="aicpa_2.pdf" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="aicpa.pdf" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="auditsense_1.pdf" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="auditsense_2.pdf" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="becker_1.pdf" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="becker.pdf" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkd_1.pdf" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkd_2.pdf" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkd_3.pdf" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cfma_less_priority.pdf" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cpa_academy.pdf" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delloite_1.pdf" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delloite_2.pdf" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ey_2.pdf" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ficpa.pdf" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grant_thorton_1.pdf" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grant_thorton_2.pdf" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grant_thorton_3.pdf" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intuit_1.pdf" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intuit_2.pdf" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intuit_3.pdf" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intuit_4.pdf" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intuit_5.pdf" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intuit_6.pdf" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intuit_7.pdf" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kpmg_1.pdf" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kpmg_2.pdf" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="learning.net.pdf" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="micpa.pdf" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="oscpa_2.pdf" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="oscpa.pdf" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="plain_english_accounting_1.pdf" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pli_1.pdf" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pli_2.pdf" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pli_3.pdf" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prime_global_less_priority.pdf" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pwc.pdf" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rsm_2.pdf" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rsm.pdf" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="surgent_1.pdf" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="surgent_2.pdf" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="the_institue_of_internal_audit_1.pdf" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="the_institue_of_internal_audit_2.pdf" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="the_institue_of_internal_audit_3.pdf" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="the_institue_of_internal_audit_5.pdf" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="the_internal_institute_audit_4.pdf" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="the_institue_of_internal_audit.pdf" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="thompson_1.pdf" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="thompson_2.pdf" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="thompson_3.pdf" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="thompson_4.pdf" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="thompson_5.pdf" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="thompson_6.pdf" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tscpa_1.pdf" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tscpa_2.pdf" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tscpa_4.pdf" sheetId="89" state="visible" r:id="rId89"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tscpa_5.pdf" sheetId="90" state="visible" r:id="rId90"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="vscpa_1.pdf" sheetId="91" state="visible" r:id="rId91"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="vscpa_2.pdf" sheetId="92" state="visible" r:id="rId92"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="western_cpa_1.pdf" sheetId="93" state="visible" r:id="rId93"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="western_cpa_2.pdf" sheetId="94" state="visible" r:id="rId94"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="western_cpa_3.pdf" sheetId="95" state="visible" r:id="rId95"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="western_cpa_4.pdf" sheetId="96" state="visible" r:id="rId96"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="western_cpa_5.pdf" sheetId="97" state="visible" r:id="rId97"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wolter.pdf" sheetId="98" state="visible" r:id="rId98"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="workiva_1.pdf" sheetId="99" state="visible" r:id="rId99"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="workiva_2.pdf" sheetId="100" state="visible" r:id="rId100"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -36,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="410">
   <si>
     <t>name</t>
   </si>
@@ -233,10 +311,10 @@
     <t>104822</t>
   </si>
   <si>
-    <t>Kerri Lynn Horn, CPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                             Farmers Tax and Accounting Conference | 5171252A
+    <t xml:space="preserve">                                                               Kerri Lynn Horn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmers Tax and Accounting Conference | 5171252A 
 </t>
   </si>
   <si>
@@ -246,7 +324,13 @@
     <t>8</t>
   </si>
   <si>
-    <t>9/20/2017</t>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>fos</t>
+  </si>
+  <si>
+    <t>[{'name': 'Business Management and Organization'}, {'name': 'Business Management and Organization'}]</t>
   </si>
   <si>
     <t>American institute of Certified Public Accountants Code of Professional Ethics</t>
@@ -270,82 +354,1005 @@
     <t>Government Institute Webcast: Not-for-Profit FASB Update</t>
   </si>
   <si>
-    <t>fos</t>
-  </si>
-  <si>
     <t>[{'name': 'Accounting'}]</t>
   </si>
   <si>
+    <t>5601 Headquarters Drive</t>
+  </si>
+  <si>
+    <t>QuickBooks solutions for clients</t>
+  </si>
+  <si>
+    <t>Computer Software &amp; Applications</t>
+  </si>
+  <si>
+    <t>1 CPE credit</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>QAS Self Study</t>
+  </si>
+  <si>
+    <t>Intuit</t>
+  </si>
+  <si>
+    <t>103311</t>
+  </si>
+  <si>
+    <t>[{'name': 'Computer Software &amp; Applications'}]</t>
+  </si>
+  <si>
+    <t>LAURIE MERNETT</t>
+  </si>
+  <si>
+    <t>PCAOB AS2410 (formerly, AS 18), Related Parties, and Other Amendments (2016)</t>
+  </si>
+  <si>
+    <t>Auditing</t>
+  </si>
+  <si>
+    <t>2018-01-03 00:00:00</t>
+  </si>
+  <si>
+    <t>Self-Study</t>
+  </si>
+  <si>
+    <t>107000</t>
+  </si>
+  <si>
+    <t>[{'name': 'Auditing'}]</t>
+  </si>
+  <si>
+    <t>Barnabas Kane</t>
+  </si>
+  <si>
+    <t>CONTINUING PROFESSIONAL EDUCATION PROGRAM</t>
+  </si>
+  <si>
+    <t>For a total of §.0</t>
+  </si>
+  <si>
+    <t>2018-01-12 00:00:00</t>
+  </si>
+  <si>
+    <t>Group Live</t>
+  </si>
+  <si>
+    <t>00064</t>
+  </si>
+  <si>
+    <t>[{'name': 'Auditing'}, {'name': 'Audit'}, {'name': 'Audit'}]</t>
+  </si>
+  <si>
+    <t>\ GSCPA Number:</t>
+  </si>
+  <si>
+    <t>2 Hrs. General</t>
+  </si>
+  <si>
+    <t>TATAS8</t>
+  </si>
+  <si>
+    <t>[{'name': 'Accounting'}, {'name': 'Auditing'}, {'name': 'Audit'}]</t>
+  </si>
+  <si>
+    <t>Jennifer Mansfield</t>
+  </si>
+  <si>
+    <t>Business Management &amp; Organization</t>
+  </si>
+  <si>
+    <t>2017-10-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer</t>
+  </si>
+  <si>
+    <t>103021</t>
+  </si>
+  <si>
+    <t>[{'name': 'Business Management &amp; Organization'}]</t>
+  </si>
+  <si>
+    <t>Annual Nonprofit Industry Update Seminar</t>
+  </si>
+  <si>
+    <t>Group live</t>
+  </si>
+  <si>
+    <t>108137</t>
+  </si>
+  <si>
+    <t>Lee, Richard</t>
+  </si>
+  <si>
+    <t>2017 Controller's Conference</t>
+  </si>
+  <si>
+    <t>Specialized Knowledge &amp; Applications</t>
+  </si>
+  <si>
+    <t>2017-10-18 00:00:00</t>
+  </si>
+  <si>
+    <t>[{'name': 'Specialized Knowledge &amp; Applications'}, {'name': 'Specialized Knowledge'}, {'name': 'Professional Development'}]</t>
+  </si>
+  <si>
+    <t>CCH AxcessPortal (Integrated) - End User - eLearning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH AxcessPortal (Integrated) - End User - eLearning  </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2017-06-27 00:00:00</t>
+  </si>
+  <si>
+    <t>Self Study</t>
+  </si>
+  <si>
+    <t>CCH Incorporated</t>
+  </si>
+  <si>
+    <t>[{'name': 'Specialized Knowledge &amp; Applications'}]</t>
+  </si>
+  <si>
+    <t>2018 Drake Software Seminar</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2018-06-14 00:00:00</t>
+  </si>
+  <si>
+    <t>103137</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Deloitte</t>
+  </si>
+  <si>
+    <t>1NOS6</t>
+  </si>
+  <si>
+    <t>[{'name': 'Accounting'}, {'name': 'Accounting'}]</t>
+  </si>
+  <si>
+    <t>David McCormick</t>
+  </si>
+  <si>
+    <t>Vader and bs virtue ob the provisions of the betives of cho Associinon of Cer tiied broad Pxaminers this comibeate of parneipagon rs borebs granted to</t>
+  </si>
+  <si>
+    <t>Spectahzed Knowledge</t>
+  </si>
+  <si>
+    <t>EY</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>The Institute of Internal Auditors</t>
+  </si>
+  <si>
+    <t>[{'name': 'Auditing'}, {'name': 'Behavioral Ethics'}, {'name': 'Management Services'}]</t>
+  </si>
+  <si>
+    <t>125269</t>
+  </si>
+  <si>
+    <t>Sharon Gubinsky</t>
+  </si>
+  <si>
+    <t>Urder ang by virtac ot the provisions of the bylaws of che Association of Cortificd Fraud Examiners his ceraftesae of particapation is hereby granted</t>
+  </si>
+  <si>
+    <t>[{'name': 'Specialized Knowledge'}]</t>
+  </si>
+  <si>
+    <t>Margaret Walsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethical Issues for Fraud Examiners (2013) </t>
+  </si>
+  <si>
+    <t>This participation is hereby recommended for 2.00</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>ASSOCIATION OF CERTIFIED FRAUD EXAMINERS</t>
+  </si>
+  <si>
+    <t>103118</t>
+  </si>
+  <si>
+    <t>[{'name': 'Behavioral Ethics'}]</t>
+  </si>
+  <si>
+    <t>Juan Trezzi</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>10311</t>
+  </si>
+  <si>
+    <t>[{'name': 'Communications'}, {'name': 'Computer Science'}, {'name': 'Specialized Knowledge and Applications'}, {'name': 'Accounting'}, {'name': 'Auditing'}, {'name': 'Business Law'}, {'name': 'Specialized Knowledge'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiran Bhathal </t>
+  </si>
+  <si>
+    <t>Tax Relief For Your Clients Federal Estate Tax</t>
+  </si>
+  <si>
+    <t>03/01/2019</t>
+  </si>
+  <si>
+    <t>Internet Based Self-Study Program.</t>
+  </si>
+  <si>
+    <t>AICPA</t>
+  </si>
+  <si>
+    <t>112891</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>[{'name': 'Taxes'}]</t>
+  </si>
+  <si>
+    <t>Tammi Thomos</t>
+  </si>
+  <si>
+    <t>Free Webcast: Drive Your Competitive Edge with Audit</t>
+  </si>
+  <si>
+    <t>11/28/1991</t>
+  </si>
+  <si>
+    <t>Carmen Leung</t>
+  </si>
+  <si>
+    <t>Experienced Staff</t>
+  </si>
+  <si>
+    <t>Personal Development</t>
+  </si>
+  <si>
+    <t>08/20/2022</t>
+  </si>
+  <si>
+    <t>109165.</t>
+  </si>
+  <si>
+    <t>[{'name': 'Personal Development'}]</t>
+  </si>
+  <si>
+    <t>Zoey Hofmeister</t>
+  </si>
+  <si>
+    <t>Number of CPE Credits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>QASself study</t>
+  </si>
+  <si>
+    <t>BOA PX‘ 77823 Becker Professional Education</t>
+  </si>
+  <si>
+    <t>107294</t>
+  </si>
+  <si>
+    <t>Angelica Garza</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Interactive Self Study</t>
+  </si>
+  <si>
+    <t>Becker Professional Education</t>
+  </si>
+  <si>
+    <t>Katelynn Stoll</t>
+  </si>
+  <si>
+    <t>What Doesthe Wayfair Ruling Mean for Your Organization? Tuesday. August 14. 2018</t>
+  </si>
+  <si>
+    <t>08/14/2019</t>
+  </si>
+  <si>
+    <t>Group Internet-Based</t>
+  </si>
+  <si>
+    <t>107848</t>
+  </si>
+  <si>
+    <t>[{'name': 'Business Management &amp; Organization'}, {'name': 'Communications'}, {'name': 'Economics'}, {'name': 'Finance'}, {'name': 'Marketing'}, {'name': 'Personal Development'}, {'name': 'Statistics'}, {'name': 'Accounting'}, {'name': 'Business Law'}, {'name': 'Taxes'}, {'name': 'Information Technology'}, {'name': 'Computer Software &amp; Applications'}, {'name': 'Regulatory Ethics'}, {'name': 'Behavioral Ethics'}, {'name': 'Management Services'}]</t>
+  </si>
+  <si>
+    <t>Jennifer Hazelton</t>
+  </si>
+  <si>
+    <t>Not-for-Profit Tax Update &amp; Introduction to 990connect Thursday. October 01. 2015</t>
+  </si>
+  <si>
+    <t>10/01/2019</t>
+  </si>
+  <si>
+    <t>[{'name': 'Communications'}, {'name': 'Computer Science'}, {'name': 'Economics'}, {'name': 'Finance'}, {'name': 'Marketing'}, {'name': 'Mathematics'}, {'name': 'Personal Development'}, {'name': 'Social Environment of Business'}, {'name': 'Statistics'}, {'name': 'Accounting'}, {'name': 'Business Law'}, {'name': 'Regulatory Ethics'}, {'name': 'Behavioral Ethics'}]</t>
+  </si>
+  <si>
+    <t>Tim Collman</t>
+  </si>
+  <si>
+    <t>Where Do We Go From Here? Adopting a Next-Generation Digital Mindset Tuesday. September 11. 2018</t>
+  </si>
+  <si>
+    <t>09/11/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                         Sylvia Matlock </t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Participant Name:</t>
+  </si>
+  <si>
+    <t>THE POWER OF PROCURE TO PAY (P2P) METRICS AND OASHBOARDS.</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>09/27/2018</t>
+  </si>
+  <si>
+    <t>Group-Intemet Based</t>
+  </si>
+  <si>
+    <t>CPAacademy org (Sponsor Id# 111889)</t>
+  </si>
+  <si>
+    <t>111889</t>
+  </si>
+  <si>
+    <t>Deloitte LLP</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>Melissa Cook</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>adam@ficpa.org !adam@ticpa 0-9:</t>
+  </si>
+  <si>
+    <t>Ethics: 4.00</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Live Presentation</t>
+  </si>
+  <si>
+    <t>FICPA</t>
+  </si>
+  <si>
+    <t>[{'name': 'Regulatory Ethics'}]</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Grant Thornton LLP</t>
+  </si>
+  <si>
+    <t>Aimee Pourciau</t>
+  </si>
+  <si>
+    <t>This is to ceruty that</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Group Intemet Based</t>
+  </si>
+  <si>
+    <t>Grant Thornton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15</t>
+  </si>
+  <si>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>RyanFirth</t>
+  </si>
+  <si>
+    <t>Introduction to QuickBooks Online for Accountants - Houston, TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:2</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Ryan Firth</t>
+  </si>
+  <si>
+    <t>Review and File ProConnect Tax Online - July 24, 2018</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Group - Internet Based</t>
+  </si>
+  <si>
+    <t>QuickBooks Accounting Virtual Conference</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Internet Based</t>
+  </si>
+  <si>
+    <t>[{'name': 'Specialized Knowledge and Application'}]</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>oe,</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
     <t>Jeannine McDonough</t>
   </si>
   <si>
-    <t>Online Certification training:</t>
-  </si>
-  <si>
-    <t>Computer Software &amp; Applications</t>
-  </si>
-  <si>
-    <t>August 07, 2018 in the field of study:</t>
-  </si>
-  <si>
-    <t>QAS Self study</t>
-  </si>
-  <si>
-    <t>LAURIE MERNETT</t>
-  </si>
-  <si>
-    <t>PCAOB AS2410 (formerly, AS 18), Related Parties, and Other Amendments (2016)</t>
-  </si>
-  <si>
-    <t>Auditing</t>
-  </si>
-  <si>
-    <t>01/03/2018</t>
-  </si>
-  <si>
-    <t>Self-Study</t>
-  </si>
-  <si>
-    <t>107000</t>
-  </si>
-  <si>
-    <t>Jennifer Mansfield</t>
-  </si>
-  <si>
-    <t>Business Management &amp; Organization</t>
-  </si>
-  <si>
-    <t>October 24, 2017</t>
-  </si>
-  <si>
-    <t>Wolters Kluwer</t>
-  </si>
-  <si>
-    <t>103021</t>
-  </si>
-  <si>
-    <t>Annual Nonprofit Industry Update Seminar</t>
-  </si>
-  <si>
-    <t>Group live</t>
-  </si>
-  <si>
-    <t>108137</t>
-  </si>
-  <si>
-    <t>Lee, Richard</t>
-  </si>
-  <si>
-    <t>2017 Controller's Conference</t>
-  </si>
-  <si>
-    <t>Specialized Knowledge &amp; Applications</t>
-  </si>
-  <si>
-    <t>October 18, 2017</t>
-  </si>
-  <si>
-    <t>[{'name': 'Specialized Knowledge &amp; Applications'}, {'name': 'Specialized Knowledge'}, {'name': 'Professional Development'}]</t>
+    <t>0.5 CPE credits</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>p 4 \} ow</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>[{'name': 'a'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   Module 1: Getting Started
+</t>
+  </si>
+  <si>
+    <t>Fred Adom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government Institute Webcast: Not-for-Profit Entities Revenue Recognition: Revenuefrom Contracts with Customers and                                    Forthcoming Clarifications to Grant Accounting
+</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Group Internet Based</t>
+  </si>
+  <si>
+    <t>KPMG</t>
+  </si>
+  <si>
+    <t>103077</t>
+  </si>
+  <si>
+    <t>Edden Burshtein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFOFinancial Forum Webcast: Implementing the newleases standard — Where do we stand? 
+</t>
+  </si>
+  <si>
+    <t>Group [nternet- Based</t>
+  </si>
+  <si>
+    <t>Auditing Accounting Estimates - Projected Financial Information 2017</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>Maurice W. Atkinson</t>
+  </si>
+  <si>
+    <t>Early Bird Ethics: Michigan Specific Ethics 2018-19 Edition</t>
+  </si>
+  <si>
+    <t>“2</t>
+  </si>
+  <si>
+    <t>Group Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Stacie R. Willis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governmental Accounting and Auditing Conference 
+</t>
+  </si>
+  <si>
+    <t>Ethics</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Group Study</t>
+  </si>
+  <si>
+    <t>OSCPA</t>
+  </si>
+  <si>
+    <t>[{'name': 'Ethics'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Stacie R. Willis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governmental Accounting and Auditing Conference (2561/18) 
+</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Conferences</t>
+  </si>
+  <si>
+    <t>[{'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Auditing'}, {'name': 'Auditing'}, {'name': 'Auditing'}, {'name': 'Behavioral Ethics'}, {'name': 'Behavioral Ethics'}]</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Arkadiy Green</t>
+  </si>
+  <si>
+    <t>Tax Planning for Domestic &amp; Foreign</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Group-Internet Based</t>
+  </si>
+  <si>
+    <t>PLI</t>
+  </si>
+  <si>
+    <t>‘O36?</t>
+  </si>
+  <si>
+    <t>Angie Adames</t>
+  </si>
+  <si>
+    <t>Tax Planning for Domestic &amp; Foreign Partnerships, LLCs, Joint Ventures &amp; Other Strategic Alliances 2015</t>
+  </si>
+  <si>
+    <t>$.00</t>
+  </si>
+  <si>
+    <t>pliedu</t>
+  </si>
+  <si>
+    <t>103621</t>
+  </si>
+  <si>
+    <t>Erin O'Reilly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>“STKadiy Green</t>
+  </si>
+  <si>
+    <t>PrimeGlobal Special Presentation: ASC 606 &amp; IFRS 15 Revenue Recognition</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Internet-Based</t>
+  </si>
+  <si>
+    <t>PrimeGlobal</t>
+  </si>
+  <si>
+    <t>104869</t>
+  </si>
+  <si>
+    <t>[{'name': 'Communications'}, {'name': 'Marketing'}, {'name': 'Accounting'}]</t>
+  </si>
+  <si>
+    <t>Matthew Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>[{'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Personnel/HR'}, {'name': 'Personnel/HR'}, {'name': 'Personnel/HR'}, {'name': 'Personnel/HR'}, {'name': 'Personnel/HR'}, {'name': 'Personnel/HR'}, {'name': 'Personnel/HR'}, {'name': 'Personnel/HR'}]</t>
+  </si>
+  <si>
+    <t>Richard Libera</t>
+  </si>
+  <si>
+    <t>RSM</t>
+  </si>
+  <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>03/20/2019</t>
+  </si>
+  <si>
+    <t>Theresa Martin</t>
+  </si>
+  <si>
+    <t>Compilation Engagements (COM4)</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>Surgent</t>
+  </si>
+  <si>
+    <t>103212</t>
+  </si>
+  <si>
+    <t>[{'name': 'Auditing'}, {'name': 'Auditing'}]</t>
+  </si>
+  <si>
+    <t>Course by Surgent (BCPE)</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>09/23/2018</t>
+  </si>
+  <si>
+    <t>Eric Chism</t>
+  </si>
+  <si>
+    <t>Power Excel &amp; Advanced Data Analysis with Bill Jelen</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>WAthe Institute of Internal Auditors</t>
+  </si>
+  <si>
+    <t>Breneada Frame</t>
+  </si>
+  <si>
+    <t>August 11, 2017 Atlanta IIA Chapter Meeting Joint meeting with GACFE</t>
+  </si>
+  <si>
+    <t>Audit</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Atlanta IIA April 2017 Chapter Meeting CAE Appreciation Day</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Institute of Internal Auditors</t>
+  </si>
+  <si>
+    <t>[{'name': 'Professional Development'}, {'name': 'Professional Development'}]</t>
+  </si>
+  <si>
+    <t>Adetokunbo “Toks” Olabisi</t>
+  </si>
+  <si>
+    <t>Data Analytics for Internal Audit at the May 11, 2018 IIA Chapter Meeting</t>
+  </si>
+  <si>
+    <t>continuing professional education on May 11, 2018. The recipient is awarded 3</t>
+  </si>
+  <si>
+    <t>Group-Live Delivery.</t>
+  </si>
+  <si>
+    <t>141664</t>
+  </si>
+  <si>
+    <t>[{'name': 'Auditing'}, {'name': 'Audit'}]</t>
+  </si>
+  <si>
+    <t>Data Analytics for Internal Audit at the May 11, 2018 ITA Chapter Meeting</t>
+  </si>
+  <si>
+    <t>[{'name': 'Audit'}]</t>
+  </si>
+  <si>
+    <t>Fraud &amp; Embezzlement: Lessons from the Trenches Fraudulent Confessions of An Accountant Fraud Risk Management &amp; COSO: Past, Present, and Future</t>
+  </si>
+  <si>
+    <t>RYAN FIRTH</t>
+  </si>
+  <si>
+    <t>Ethics for New York CPAs-ETHXNY</t>
+  </si>
+  <si>
+    <t>12/31/2019</t>
+  </si>
+  <si>
+    <t>Checkpoint Learning</t>
+  </si>
+  <si>
+    <t>Karen Tyler</t>
+  </si>
+  <si>
+    <t>California Rules and Regulations-ETHCRR</t>
+  </si>
+  <si>
+    <t>07/17/2019</t>
+  </si>
+  <si>
+    <t>Jim Faw</t>
+  </si>
+  <si>
+    <t>2017 Year-End Workflow and Best Practices: UltraTax CS</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Thomson Reuters Tax &amp; Accounting Professional Software &amp; Services</t>
+  </si>
+  <si>
+    <t>103153,</t>
+  </si>
+  <si>
+    <t>[{'name': 'Accounting'}, {'name': 'Accounting'}, {'name': 'Computer Software &amp; Applications'}]</t>
+  </si>
+  <si>
+    <t>Cole Johnson</t>
+  </si>
+  <si>
+    <t>Ethics for CPAs-ETHGEN</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>12/29/2019</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>TSCPA</t>
+  </si>
+  <si>
+    <t>[{'name': 'Accounting'}, {'name': 'Auditing'}]</t>
+  </si>
+  <si>
+    <t>C:TSCPA</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
+  <si>
+    <t>Boul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mackenzie L. Harris</t>
+  </si>
+  <si>
+    <t>Virginia CPA Ethics. 2017 Required Course Webcast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1/2</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>. Group internet-based</t>
+  </si>
+  <si>
+    <t>The Virginia Society of CPAs</t>
+  </si>
+  <si>
+    <t>108526.</t>
+  </si>
+  <si>
+    <t>Gary D. Ometer</t>
+  </si>
+  <si>
+    <t>Virginia CPA Ethics: 2017 Required Course</t>
+  </si>
+  <si>
+    <t>Regulatory ethics</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>[{'name': 'Regulatory ethics'}]</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Western CPE</t>
+  </si>
+  <si>
+    <t>103220</t>
+  </si>
+  <si>
+    <t>[{'name': 'KN'}, {'name': 'KN'}]</t>
+  </si>
+  <si>
+    <t>"7</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Tax Strategies for Real Estate Investors</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Passive Activity Loss Rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Wes:ern CPE</t>
+  </si>
+  <si>
+    <t>Planning for Persons with Special Needs</t>
+  </si>
+  <si>
+    <t>Tammi J. Thomos</t>
+  </si>
+  <si>
+    <t>ADP - WCS: COMPLIANCE TRENDSIN THE EMPLOYEE LIFE CYCLE - 08/02/2018 (1PM EDT)</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Group: Internet-based</t>
+  </si>
+  <si>
+    <t>Jermaine Badie</t>
+  </si>
+  <si>
+    <t>Q1 2018 SEC Professionals Group Meeting - Professionals Development &amp; Leadership Skills</t>
+  </si>
+  <si>
+    <t>Ql 2018 SEC Professionals Group Meeting - Lease Accounting Standard - Presenter</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
   </si>
 </sst>
 </file>
@@ -772,6 +1779,97 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -954,7 +2052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:B13"/>
+  <dimension ref="A5:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,6 +2127,14 @@
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1055,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1063,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1071,7 +2177,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1079,7 +2185,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1087,7 +2193,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1140,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1148,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1194,10 +2300,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +2317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:B13"/>
+  <dimension ref="A5:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1224,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1232,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1240,20 +2346,23 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1261,22 +2370,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:B13"/>
+  <dimension ref="A5:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1303,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1311,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1319,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1335,7 +2458,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1343,7 +2466,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1361,7 +2484,15 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +2506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:A13"/>
+  <dimension ref="A5:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1383,49 +2514,78 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +2599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:A13"/>
+  <dimension ref="A5:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,49 +2607,69 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +2759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:B13"/>
+  <dimension ref="A5:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1592,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1605,7 +2785,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1621,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1634,7 +2814,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1642,12 +2822,20 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1682,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1708,7 +2896,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1721,7 +2909,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1753,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1761,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1769,53 +2957,660 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1911,6 +3706,912 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1977,6 +4678,897 @@
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2060,6 +5652,915 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2123,6 +6624,942 @@
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2212,6 +7649,900 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2293,6 +8624,861 @@
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2371,4 +9557,916 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/test/reference_file.xlsx
+++ b/test/reference_file.xlsx
@@ -19,6 +19,22 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="aicpa_2.pdf" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="aicpa.pdf" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="auditsense_1.pdf" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="auditsense_2.pdf" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="becker_1.pdf" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="becker.pdf" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkd_1.pdf" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkd_2.pdf" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkd_3.pdf" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cfma_less_priority.pdf" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cpa_academy.pdf" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delloite_1.pdf" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delloite_3.pdf" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ficpa.pdf" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grant_thorton_1.pdf" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grant_thorton_2.pdf" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ey_2.pdf" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delloite_2.pdf" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intuit_4.pdf" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -37,28 +53,25 @@
     <t>program_name</t>
   </si>
   <si>
-    <t>Vader and bs virtue ob the provisions of the betives of cho Associinon of Cer tiied</t>
-  </si>
-  <si>
-    <t>field_of_study</t>
-  </si>
-  <si>
-    <t>Spectahzed Knowledge</t>
+    <t>New Ways to Prevent and Detect Fraud Risks Across Employee Spend Areas tedeb tlite</t>
   </si>
   <si>
     <t>credits</t>
   </si>
   <si>
+    <t xml:space="preserve"> This participation is hereby recommended for 1.20</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
-    <t>07/12/2018</t>
+    <t>03/19/2019</t>
   </si>
   <si>
     <t>delivery_method</t>
   </si>
   <si>
-    <t>Group Internet based</t>
+    <t>Group Internet Based</t>
   </si>
   <si>
     <t>sponsor</t>
@@ -67,16 +80,25 @@
     <t>sponsor_id</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>qas_number</t>
   </si>
   <si>
     <t>fos</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>[{'name': 'Fraud', 'credits': '1.20', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>David F. McCormick CA-017896-L</t>
+  </si>
+  <si>
+    <t>"Procurement Fraud Indicators and Current Trends”</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
   <si>
     <t>01/16/2018</t>
@@ -88,6 +110,9 @@
     <t>Association of Certified Fraud Examiners</t>
   </si>
   <si>
+    <t>[{'name': 'Fraud', 'credits': '1.0', 'score': ''}]</t>
+  </si>
+  <si>
     <t>Fraud &amp; Embezzlement: Lessons from the Trenches Fraudulent Confessions of An Accountant Fraud Risk Management &amp; COSO: Past, Present, and Future</t>
   </si>
   <si>
@@ -97,22 +122,40 @@
     <t>Institute of Internal Auditors</t>
   </si>
   <si>
-    <t>[{'name': 'Behavioral Ethics', 'credits': '2', 'score': ''}, {'name': 'Auditing', 'credits': '4', 'score': ''}, {'name': 'Management Services', 'credits': '2', 'score': ''}]</t>
+    <t>[{'name': 'Management Services', 'credits': '2.0', 'score': ''}, {'name': 'Behavioral Ethics', 'credits': '2.0', 'score': ''}, {'name': 'Auditing', 'credits': '4.0', 'score': ''}]</t>
   </si>
   <si>
     <t>[{'name': 'Auditing'}, {'name': 'Behavioral Ethics'}, {'name': 'Management Services'}]</t>
   </si>
   <si>
-    <t>125269</t>
-  </si>
-  <si>
-    <t>Decentralized Technologies: Cryptocurrency Regulation, Anti-Money Laundering Concerns and the Importance of Knowing Your Customer hic.dl of Scudy:</t>
-  </si>
-  <si>
-    <t>08/21/2018</t>
-  </si>
-  <si>
-    <t>[{'name': 'Specialized Knowledge', 'credits': '1.20', 'score': ''}]</t>
+    <t xml:space="preserve"> 1</t>
+  </si>
+  <si>
+    <t>[{'name': 'Fraud', 'credits': '1', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Group Lve</t>
+  </si>
+  <si>
+    <t>[{'name': 'NASBA', 'id': '125269', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'Fraud', 'credits': '', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>Sharon Gubinsky</t>
+  </si>
+  <si>
+    <t>Decentralized Technologies: Cryptocurrency Regulation, Anti-Money Laundering Concerns and the Importance of Knowing Your Customer Fields of Study</t>
+  </si>
+  <si>
+    <t>103118</t>
+  </si>
+  <si>
+    <t>[{'name': 'Specialized Knowledge', 'credits': '1.2', 'score': ''}]</t>
   </si>
   <si>
     <t>Margaret Walsh</t>
@@ -121,19 +164,16 @@
     <t>Ethical Issues for Fraud Examiners (2013)</t>
   </si>
   <si>
-    <t>This participation is hereby recommended for 2.00</t>
-  </si>
-  <si>
-    <t>03/19/2019</t>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
   </si>
   <si>
     <t>QAS Self-Study</t>
   </si>
   <si>
-    <t>103118</t>
-  </si>
-  <si>
-    <t>[{'name': 'Behavioral Ethics', 'credits': '2.00', 'score': ''}]</t>
+    <t>[{'name': 'Behavioral Ethics', 'credits': '2.0', 'score': ''}]</t>
   </si>
   <si>
     <t>Juan Trezzi</t>
@@ -146,19 +186,19 @@
     <t>12/12/2015</t>
   </si>
   <si>
-    <t>10311</t>
-  </si>
-  <si>
-    <t>[{'name': 'Professional Ethics', 'credits': '1', 'score': ''}, {'name': 'Auditing', 'credits': '1.5', 'score': ''}, {'name': 'Business Law', 'credits': '8', 'score': ''}, {'name': 'Specialized Knowledge and Applications', 'credits': '15.5', 'score': ''}, {'name': 'Computer Science', 'credits': '0.5', 'score': ''}, {'name': 'Accounting', 'credits': '1.5', 'score': ''}, {'name': 'Communications', 'credits': '2', 'score': ''}]</t>
-  </si>
-  <si>
-    <t>CERTIFICATION OF COMPLETION</t>
-  </si>
-  <si>
-    <t>Tax Relief For Your Clients Federal Estate Tax and is awardedthis certificate on 1/25/20 16</t>
-  </si>
-  <si>
-    <t>01/25/2020</t>
+    <t>#1031</t>
+  </si>
+  <si>
+    <t>[{'name': 'Auditing', 'credits': '1.5', 'score': ''}, {'name': 'Computer Science', 'credits': '1.5', 'score': ''}, {'name': 'Business Law', 'credits': '8.0', 'score': ''}, {'name': 'Specialized Knowledge and Applications', 'credits': '15.5', 'score': ''}, {'name': 'Accounting', 'credits': '8.0', 'score': ''}, {'name': 'Communications', 'credits': '15.5', 'score': ''}, {'name': 'Professional Ethics', 'credits': '1.0', 'score': ''}, {'name': 'Specialized Knowledge', 'credits': '15.5', 'score': ''}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiran Bhathal </t>
+  </si>
+  <si>
+    <t>Tax Relief For Your Clients Federal Estate Tax</t>
+  </si>
+  <si>
+    <t>03/13/2019</t>
   </si>
   <si>
     <t>Internet Based Self-Study Program.</t>
@@ -176,19 +216,16 @@
     <t>[{'name': 'Taxes', 'credits': '', 'score': ''}]</t>
   </si>
   <si>
-    <t>Tammi Thomos</t>
+    <t xml:space="preserve"> Tammi Thomos</t>
   </si>
   <si>
     <t xml:space="preserve"> Free Webcast: Drive Your Competitive Edge with Audit Quality</t>
   </si>
   <si>
-    <t>03/18/0648</t>
-  </si>
-  <si>
     <t>Internet-based group-study Completion date: Tue, September 22, 2015</t>
   </si>
   <si>
-    <t>[{'name': 'Auditing', 'credits': '2', 'score': ''}]</t>
+    <t>[{'name': 'Auditing', 'credits': '2.0', 'score': ''}]</t>
   </si>
   <si>
     <t>Carmen Leung</t>
@@ -197,9 +234,6 @@
     <t>Experienced Staff</t>
   </si>
   <si>
-    <t>08/20/2022</t>
-  </si>
-  <si>
     <t>AuditSense</t>
   </si>
   <si>
@@ -207,6 +241,239 @@
   </si>
   <si>
     <t>[{'name': 'Personal Development', 'credits': '', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>Zoey Hofmeister</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lease Accounting</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>QASself study</t>
+  </si>
+  <si>
+    <t>Becker Professional Education</t>
+  </si>
+  <si>
+    <t>107294</t>
+  </si>
+  <si>
+    <t>[{'name': 'Accounting', 'credits': '30.0', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>Angelica Garza</t>
+  </si>
+  <si>
+    <t>Federal Tax Update-June 2018</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Interactive Self Study</t>
+  </si>
+  <si>
+    <t>[{'name': 'Taxes', 'credits': '2.0', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>Katelynn Stoll</t>
+  </si>
+  <si>
+    <t>What Doesthe Wayfair Ruling Mean for Your Organization? Tuesday. August 14. 2018</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Group Internet-Based</t>
+  </si>
+  <si>
+    <t>107848</t>
+  </si>
+  <si>
+    <t>[{'name': 'Computer Software &amp; Applications', 'credits': '0.0', 'score': ''}, {'name': 'Accounting', 'credits': '0.0', 'score': ''}, {'name': 'Business Management &amp; Organization', 'credits': '0.0', 'score': ''}, {'name': 'Economics', 'credits': '0.0', 'score': ''}, {'name': 'Regulatory Ethics', 'credits': '0.0', 'score': ''}, {'name': 'Management Services', 'credits': '0.0', 'score': ''}, {'name': 'Finance', 'credits': '0.0', 'score': ''}, {'name': 'Communications', 'credits': '0.0', 'score': ''}, {'name': 'Personal Development', 'credits': '0.0', 'score': ''}, {'name': 'Taxes', 'credits': '0.0', 'score': ''}, {'name': 'Business Law', 'credits': '0.0', 'score': ''}, {'name': 'Statistics', 'credits': '0.0', 'score': ''}, {'name': 'Behavioral Ethics', 'credits': '0.0', 'score': ''}, {'name': 'Marketing', 'credits': '0.0', 'score': ''}, {'name': 'Information Technology', 'credits': '0.0', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>Jennifer Hazelton</t>
+  </si>
+  <si>
+    <t>Not-for-Profit Tax Update &amp; Introduction to 990connect Thursday. October 01. 2015</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>[{'name': 'Behavioral Ethics', 'credits': '000', 'score': ''}, {'name': 'Statistics', 'credits': '0', 'score': ''}, {'name': 'Marketing', 'credits': '0', 'score': ''}, {'name': 'Business Law', 'credits': '000', 'score': ''}, {'name': 'Accounting', 'credits': '000', 'score': ''}, {'name': 'Communications', 'credits': '0', 'score': ''}, {'name': 'Regulatory Ethics', 'credits': '0', 'score': ''}, {'name': 'Finance', 'credits': '0', 'score': ''}, {'name': 'Social Environment of Business', 'credits': '0', 'score': ''}, {'name': 'Computer Science', 'credits': '0', 'score': ''}, {'name': 'Personal Development', 'credits': '0', 'score': ''}, {'name': 'Mathematics', 'credits': '0', 'score': ''}, {'name': 'Economics', 'credits': '0', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>Tim Collman</t>
+  </si>
+  <si>
+    <t>Where Do We Go From Here? Adopting a Next-Generation Digital Mindset Tuesday. September 11. 2018</t>
+  </si>
+  <si>
+    <t>[{'name': 'Behavioral Ethics', 'credits': '000', 'score': ''}, {'name': 'Statistics', 'credits': '0', 'score': ''}, {'name': 'Marketing', 'credits': '000', 'score': ''}, {'name': 'Business Law', 'credits': '000', 'score': ''}, {'name': 'Accounting', 'credits': '000', 'score': ''}, {'name': 'Management Services', 'credits': '000', 'score': ''}, {'name': 'Communications', 'credits': '000', 'score': ''}, {'name': 'Regulatory Ethics', 'credits': '000', 'score': ''}, {'name': 'Information Technology', 'credits': '000', 'score': ''}, {'name': 'Taxes', 'credits': '0', 'score': ''}, {'name': 'Economics', 'credits': '000', 'score': ''}, {'name': 'Personal Development', 'credits': '000', 'score': ''}, {'name': 'Computer Software &amp; Applications', 'credits': '000', 'score': ''}, {'name': 'Finance', 'credits': '000', 'score': ''}, {'name': 'Business Management &amp; Organization', 'credits': '000', 'score': ''}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                         Sylvia Matlock </t>
+  </si>
+  <si>
+    <t>The Affordable Care Act: Lessons Learned and the Future of Obamacare</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>1031/5</t>
+  </si>
+  <si>
+    <t>[{'name': 'Specialized Knowledge', 'credits': '1.50', 'score': ''}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edden Burshtein</t>
+  </si>
+  <si>
+    <t>THE POWER OF PROCURE TO PAY (P2P) METRICS AND OASHBOARDS.</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>09/27/2018</t>
+  </si>
+  <si>
+    <t>Group-Intemet Based</t>
+  </si>
+  <si>
+    <t>CPA Academy</t>
+  </si>
+  <si>
+    <t>111889</t>
+  </si>
+  <si>
+    <t>[{'name': 'Business Management and Organization', 'credits': '10', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>Michael Lieb</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Group - Internet-Based</t>
+  </si>
+  <si>
+    <t>Deloitte</t>
+  </si>
+  <si>
+    <t>[{'name': 'Specialized Knowledge', 'credits': '0', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>[{'name': 'Audit', 'credits': '2018', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>Robert M. Launch (682)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethics: Protecting the Integrity of Florida CPAs (4980) 
+</t>
+  </si>
+  <si>
+    <t>Ethics: 4.00</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Live Presentation</t>
+  </si>
+  <si>
+    <t>FICPA</t>
+  </si>
+  <si>
+    <t>[{'name': 'Regulatory Ethics', 'credits': '4.00', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>The Proposed Section 965 Regulations — Transition Tax</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Group ‘rternet basea</t>
+  </si>
+  <si>
+    <t>Grant Thornton</t>
+  </si>
+  <si>
+    <t>[{'name': 'Taxes', 'credits': '1.5', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>Aimee Pourciau</t>
+  </si>
+  <si>
+    <t>Tax accounting quarterly update: September 2017 instructional Delivery Method</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Group Intemet Based</t>
+  </si>
+  <si>
+    <t>[{'name': 'Accounting', 'credits': '2017', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>Melissa Cook</t>
+  </si>
+  <si>
+    <t>Q2 2017 Financial Reporting Update San Jose Location: San Jose CA</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Self Study</t>
+  </si>
+  <si>
+    <t>[{'name': 'Accounting', 'credits': '1.5', 'score': ''}]</t>
+  </si>
+  <si>
+    <t>JEANNINE MCDONOUGH</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>[{'name': 'Accounting', 'credits': '4', 'score': ''}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 Module 1: Getting Started
+</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Intuit</t>
+  </si>
+  <si>
+    <t>[{'name': 'Specialized Knowledge', 'credits': '7', 'score': ''}]</t>
   </si>
 </sst>
 </file>
@@ -573,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -581,44 +848,44 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -626,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -634,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -661,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -669,17 +936,17 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -687,26 +954,26 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -714,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -722,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -757,59 +1024,640 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -859,20 +1707,20 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -880,15 +1728,21 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -896,7 +1750,736 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -922,39 +2505,48 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -962,17 +2554,20 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -980,7 +2575,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1015,37 +2610,40 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1059,7 +2657,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1067,7 +2665,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1101,27 +2699,30 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1134,7 +2735,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1168,33 +2769,39 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1207,7 +2814,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1233,44 +2840,50 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1283,7 +2896,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1310,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1318,47 +2931,47 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1371,7 +2984,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1406,44 +3019,44 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1456,7 +3069,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
